--- a/inst/extdata/from_tables/table.xlsx
+++ b/inst/extdata/from_tables/table.xlsx
@@ -17,7 +17,7 @@
     <sheet name="mdp" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="descr" localSheetId="0">description!$A$1:$G$4</definedName>
+    <definedName name="descr" localSheetId="0">description!$A$1:$H$4</definedName>
     <definedName name="fdata" localSheetId="1">adp!$A$1:$D$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
   <si>
     <t>fdata.name</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>tmp</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>unkn</t>
   </si>
 </sst>
 </file>
@@ -858,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,11 +877,12 @@
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,13 +899,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -915,13 +925,16 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -938,13 +951,16 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -961,9 +977,12 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/inst/extdata/from_tables/table.xlsx
+++ b/inst/extdata/from_tables/table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -534,10 +534,10 @@
     <t>tmp</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>unkn</t>
+  </si>
+  <si>
+    <t>sample.type</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -977,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
